--- a/Costas_Tuning_Performance.xlsx
+++ b/Costas_Tuning_Performance.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -423,7 +423,7 @@
         <v>40</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -440,7 +440,7 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -457,7 +457,7 @@
         <v>38</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Costas_Tuning_Performance.xlsx
+++ b/Costas_Tuning_Performance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>16-bit Integrator 4.34</t>
   </si>
@@ -40,6 +40,24 @@
   </si>
   <si>
     <t>sim a37</t>
+  </si>
+  <si>
+    <t>sim a35</t>
+  </si>
+  <si>
+    <t>firm a35</t>
+  </si>
+  <si>
+    <t>sim a34</t>
+  </si>
+  <si>
+    <t>firm a34</t>
+  </si>
+  <si>
+    <t>BPSK_300_IL2Pc_50b_50m_a4</t>
+  </si>
+  <si>
+    <t>firm 4.33</t>
   </si>
 </sst>
 </file>
@@ -371,20 +389,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -395,7 +413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -408,8 +426,23 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -425,8 +458,20 @@
       <c r="E3">
         <v>34</v>
       </c>
+      <c r="F3">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -442,8 +487,20 @@
       <c r="E4">
         <v>35</v>
       </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -458,6 +515,29 @@
       </c>
       <c r="E5">
         <v>29</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Costas_Tuning_Performance.xlsx
+++ b/Costas_Tuning_Performance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>16-bit Integrator 4.34</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>firm 4.33</t>
+  </si>
+  <si>
+    <t>BPSK_1200_IL2Pc_50b_50m_a3</t>
+  </si>
+  <si>
+    <t>BPSK_1200_IL2Pc_50b_50m_m25hz_a3</t>
+  </si>
+  <si>
+    <t>BPSK_1200_IL2Pc_50b_50m_p25hz_a3</t>
+  </si>
+  <si>
+    <t>BPSK_1200_IL2Pc_50b_50m_p50hz_a3</t>
+  </si>
+  <si>
+    <t>BPSK_1200_IL2Pc_50b_50m_m50hz_a3</t>
+  </si>
+  <si>
+    <t>BPSK_1200_AX25_50b_50m_p50hz_a3</t>
+  </si>
+  <si>
+    <t>BPSK_1200_AX25_50b_50m_m50hz_a3</t>
+  </si>
+  <si>
+    <t>BPSK_1200_AX25_50b_50m_a3</t>
   </si>
 </sst>
 </file>
@@ -389,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -538,6 +562,61 @@
       </c>
       <c r="J6">
         <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Costas_Tuning_Performance.xlsx
+++ b/Costas_Tuning_Performance.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7460600-7D19-2640-A08A-90970D95F017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="14385"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="300 BPSK AX.25" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>16-bit Integrator 4.34</t>
   </si>
@@ -82,13 +88,16 @@
   </si>
   <si>
     <t>BPSK_1200_AX25_50b_50m_a3</t>
+  </si>
+  <si>
+    <t>sim a32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +134,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +186,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -203,6 +220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,9 +255,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,21 +431,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -437,7 +456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -465,8 +484,11 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -495,7 +517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -524,7 +546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -553,7 +575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -564,7 +586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -572,7 +594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -580,7 +602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -588,7 +610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -596,7 +618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -604,19 +626,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
+      </c>
+      <c r="K14">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -625,24 +650,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Costas_Tuning_Performance.xlsx
+++ b/Costas_Tuning_Performance.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7460600-7D19-2640-A08A-90970D95F017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="28760" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="300 BPSK AX.25" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>16-bit Integrator 4.34</t>
   </si>
@@ -91,13 +85,16 @@
   </si>
   <si>
     <t>sim a32</t>
+  </si>
+  <si>
+    <t>sim 1200_e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -220,7 +217,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,10 +251,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,21 +426,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -456,7 +452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -487,8 +483,11 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -517,7 +516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -546,7 +545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -575,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -586,7 +585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -594,7 +593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -602,7 +601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -610,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -618,7 +617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -626,17 +625,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -650,24 +649,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
